--- a/biology/Botanique/Euphorbia_balsamifera/Euphorbia_balsamifera.xlsx
+++ b/biology/Botanique/Euphorbia_balsamifera/Euphorbia_balsamifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphorbia balsamifera est une espèce de plante de la famille des Euphorbiacées, originaire d'Afrique du Nord, depuis les îles Canaries jusqu'en péninsule Arabique. Elle est la plante symbole de Lanzarote[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphorbia balsamifera est une espèce de plante de la famille des Euphorbiacées, originaire d'Afrique du Nord, depuis les îles Canaries jusqu'en péninsule Arabique. Elle est la plante symbole de Lanzarote.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom local aux Îles Canaries est Tabaiba dulce.
-Le nom balsamum vient du latin balsamum= baume et fero= porter, en référence en une utilisation de la sève sous forme de baume[2].
+Le nom balsamum vient du latin balsamum= baume et fero= porter, en référence en une utilisation de la sève sous forme de baume.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia balsamifera est réparti depuis les îles Canaries, à travers la moitié sud du Sahara, au sud jusqu'au nord du Nigéria, au Soudan, dans la corne de l'Afrique et la péninsule Arabique jusqu'en Oman et au Yémen.
 </t>
@@ -574,13 +590,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste qui peut atteindre 2 m de haut.
 Les feuilles sont elliptiques lancéolées
-Les inflorescences sont constituées d'une seule fleur au bout de la rosette de feuilles terminales[3].
+Les inflorescences sont constituées d'une seule fleur au bout de la rosette de feuilles terminales.
 			Feuilles en rosette de Euphorbia balsamifera .
-			Infructescence unique sur la rosette terminale[2].
+			Infructescence unique sur la rosette terminale.
 			Euphorbia balsamifera, est fréquent dans les champs de lave des Malpais de Lanzarote.
 </t>
         </is>
@@ -610,9 +628,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le latex était autrefois récolté pour être utilisé en baume pour renforcer les gencives et en anti-inflammatoire[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le latex était autrefois récolté pour être utilisé en baume pour renforcer les gencives et en anti-inflammatoire.
 </t>
         </is>
       </c>
